--- a/medicine/Enfance/Shannon_Messenger/Shannon_Messenger.xlsx
+++ b/medicine/Enfance/Shannon_Messenger/Shannon_Messenger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -506,10 +518,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Shannon Messenger, née en 1991 en Californie, est une autrice américaine[1] de livres jeunesse. Elle est connue pour la série Gardiens des cités perdues (en anglais : Keeper of the Lost Cities).Shannon Messenger est diplômée de l'USC School of Cinematic Arts, Université de Californie du Sud, où elle a appris qu'elle préférait regarder les films que les créer. Elle a étudié l'art, l'écriture et la production de films mais elle a réalisé que sa réelle passion était d'écrire des histoires. Elle vit dans le sud de la Californie.
-Selon le New York Times[2] et USA Today, elle figure parmi les meilleurs auteurs de bestseller avec ses séries Gardiens des cités perdues et Sky Fall. Ses livres ont été publiés dans de nombreux pays et traduit en de nombreuses langues.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shannon Messenger, née en 1991 en Californie, est une autrice américaine de livres jeunesse. Elle est connue pour la série Gardiens des cités perdues (en anglais : Keeper of the Lost Cities).Shannon Messenger est diplômée de l'USC School of Cinematic Arts, Université de Californie du Sud, où elle a appris qu'elle préférait regarder les films que les créer. Elle a étudié l'art, l'écriture et la production de films mais elle a réalisé que sa réelle passion était d'écrire des histoires. Elle vit dans le sud de la Californie.
+Selon le New York Times et USA Today, elle figure parmi les meilleurs auteurs de bestseller avec ses séries Gardiens des cités perdues et Sky Fall. Ses livres ont été publiés dans de nombreux pays et traduit en de nombreuses langues.
 </t>
         </is>
       </c>
@@ -540,8 +554,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Gardiens des cités perdues
-Gardiens des cités perdues, Lumen, 2014 ((en) Keeper of the Lost Cities, 2012)  (ISBN 978-2-37102-004-7)Réédition, Pocket Jeunesse, 2016  (ISBN 978-2-266-27066-3)
+          <t>Série Gardiens des cités perdues</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Gardiens des cités perdues, Lumen, 2014 ((en) Keeper of the Lost Cities, 2012)  (ISBN 978-2-37102-004-7)Réédition, Pocket Jeunesse, 2016  (ISBN 978-2-266-27066-3)
 Exil, Lumen, 2015 ((en) Exile, 2013)  (ISBN 978-2-37102-027-6)Réédition, Pocket Jeunesse, 2017  (ISBN 978-2-266-27023-6)
 Le Grand Brasier, Lumen, 2015 ((en) Everblaze, 2014)  (ISBN 978-2-37102-052-8)Réédition, Pocket Jeunesse, 2018  (ISBN 978-2-266-27024-3)
 Les Invisibles, Lumen, 2016 ((en) Neverseen, 2015)  (ISBN 978-2-37102-078-8)Réédition, Pocket Jeunesse, 2018  (ISBN 978-2-266-27267-4)
@@ -550,9 +569,43 @@
 Réminiscences, Lumen, 2018 ((en) Flashback, 2018)  (ISBN 978-2-37102-189-1)Réédition, Pocket Jeunesse, 2022  (ISBN 978-2-266-30537-2)
 Héritages, Lumen, 2019 ((en) Legacy, 2019)  (ISBN 978-2-37102-249-2)Réédition, Pocket Jeunesse, 2023  (ISBN 978-2-266-33198-2)
 8,5  Le Livre des secrets, Lumen, 2020 ((en) Unlocked, 2020)  (ISBN 978-2-37102-294-2)
- Lune stellaire, Lumen, 2022 ((en) Stellarlune, 2022)  (ISBN 978-2-37102-294-2)
-Série Sky Fall
-Let the Sky Fall, Lumen, 2015 ((en) Let the Sky Fall, 2013)
+ Lune stellaire, Lumen, 2022 ((en) Stellarlune, 2022)  (ISBN 978-2-37102-294-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Shannon_Messenger</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Shannon_Messenger</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Sky Fall</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Let the Sky Fall, Lumen, 2015 ((en) Let the Sky Fall, 2013)
 Let the Storm Break, Lumen, 2016 ((en) Let the Storm Break, 2014)
 Let the Wind Rise, Lumen, 2018 ((en) Let the Wind Rise, 2016)</t>
         </is>
